--- a/data/excel/२०२४/०७/२९.xlsx
+++ b/data/excel/२०२४/०७/२९.xlsx
@@ -16,6 +16,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
+    <t>Min Price</t>
+  </si>
+  <si>
+    <t>Avg Price</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -28,12 +34,6 @@
     <t>Max Price</t>
   </si>
   <si>
-    <t>Min Price</t>
-  </si>
-  <si>
-    <t>Avg Price</t>
-  </si>
-  <si>
     <t>२०२४-०७-२९</t>
   </si>
   <si>
@@ -52,16 +52,25 @@
     <t>७५.००</t>
   </si>
   <si>
+    <t>२०.००</t>
+  </si>
+  <si>
+    <t>२५.००</t>
+  </si>
+  <si>
+    <t>गोलभेडा सानो(लोकल)</t>
+  </si>
+  <si>
     <t>३०.००</t>
   </si>
   <si>
-    <t>२०.००</t>
-  </si>
-  <si>
-    <t>२५.००</t>
-  </si>
-  <si>
-    <t>गोलभेडा सानो(लोकल)</t>
+    <t>गोलभेडा सानो(टनेल)</t>
+  </si>
+  <si>
+    <t>के जी</t>
+  </si>
+  <si>
+    <t>४५.००</t>
   </si>
   <si>
     <t>३२.००</t>
@@ -70,13 +79,7 @@
     <t>३९.००</t>
   </si>
   <si>
-    <t>गोलभेडा सानो(टनेल)</t>
-  </si>
-  <si>
-    <t>के जी</t>
-  </si>
-  <si>
-    <t>४५.००</t>
+    <t>आलु रातो</t>
   </si>
   <si>
     <t>६५.००</t>
@@ -85,7 +88,7 @@
     <t>६८.००</t>
   </si>
   <si>
-    <t>आलु रातो</t>
+    <t>५६.००</t>
   </si>
   <si>
     <t>५४.००</t>
@@ -97,9 +100,6 @@
     <t>आलु रातो(भारतीय)</t>
   </si>
   <si>
-    <t>५६.००</t>
-  </si>
-  <si>
     <t>आलु रातो(मुडे)</t>
   </si>
   <si>
@@ -130,24 +130,24 @@
     <t>८२.४०</t>
   </si>
   <si>
+    <t>११०.००</t>
+  </si>
+  <si>
+    <t>१००.००</t>
+  </si>
+  <si>
+    <t>१०६.६७</t>
+  </si>
+  <si>
     <t>गाजर(लोकल)</t>
   </si>
   <si>
-    <t>११०.००</t>
-  </si>
-  <si>
-    <t>१००.००</t>
-  </si>
-  <si>
-    <t>१०६.६७</t>
+    <t>४०.००</t>
   </si>
   <si>
     <t>बन्दा(लोकल)</t>
   </si>
   <si>
-    <t>४०.००</t>
-  </si>
-  <si>
     <t>काउली स्थानिय</t>
   </si>
   <si>
@@ -157,39 +157,39 @@
     <t>८६.६७</t>
   </si>
   <si>
+    <t>स्थानीय काउली(ज्यापु)</t>
+  </si>
+  <si>
     <t>९६.६७</t>
   </si>
   <si>
-    <t>स्थानीय काउली(ज्यापु)</t>
-  </si>
-  <si>
     <t>मूला रातो</t>
   </si>
   <si>
+    <t>२१.६७</t>
+  </si>
+  <si>
     <t>मूला सेतो(लोकल)</t>
   </si>
   <si>
-    <t>२१.६७</t>
+    <t>सेतो मूला(हाइब्रीड)</t>
   </si>
   <si>
     <t>२८.००</t>
   </si>
   <si>
-    <t>सेतो मूला(हाइब्रीड)</t>
-  </si>
-  <si>
     <t>भन्टा लाम्चो</t>
   </si>
   <si>
     <t>६०.००</t>
   </si>
   <si>
+    <t>भन्टा डल्लो</t>
+  </si>
+  <si>
     <t>५६.६७</t>
   </si>
   <si>
-    <t>भन्टा डल्लो</t>
-  </si>
-  <si>
     <t>७६.००</t>
   </si>
   <si>
@@ -229,6 +229,9 @@
     <t>११५.००</t>
   </si>
   <si>
+    <t>१७०.००</t>
+  </si>
+  <si>
     <t>भटमासकोशा</t>
   </si>
   <si>
@@ -238,15 +241,12 @@
     <t>१६०.००</t>
   </si>
   <si>
-    <t>१७०.००</t>
+    <t>४६.००</t>
   </si>
   <si>
     <t>तितो करेला</t>
   </si>
   <si>
-    <t>४६.००</t>
-  </si>
-  <si>
     <t>लौका</t>
   </si>
   <si>
@@ -262,12 +262,12 @@
     <t>चिचिण्डो</t>
   </si>
   <si>
+    <t>घिरौला</t>
+  </si>
+  <si>
     <t>३४.००</t>
   </si>
   <si>
-    <t>घिरौला</t>
-  </si>
-  <si>
     <t>झिगूनी</t>
   </si>
   <si>
@@ -280,12 +280,12 @@
     <t>हरियो फर्सी(डल्लो)</t>
   </si>
   <si>
+    <t>३५.००</t>
+  </si>
+  <si>
     <t>भिण्डी</t>
   </si>
   <si>
-    <t>३५.००</t>
-  </si>
-  <si>
     <t>पिंडालू</t>
   </si>
   <si>
@@ -301,21 +301,21 @@
     <t>तोरीको साग</t>
   </si>
   <si>
+    <t>प्याज हरियो</t>
+  </si>
+  <si>
     <t>१५०.००</t>
   </si>
   <si>
-    <t>प्याज हरियो</t>
+    <t>२००.००</t>
+  </si>
+  <si>
+    <t>१९२.००</t>
   </si>
   <si>
     <t>च्याउ(कन्य)</t>
   </si>
   <si>
-    <t>२००.००</t>
-  </si>
-  <si>
-    <t>१९२.००</t>
-  </si>
-  <si>
     <t>च्याउ(डल्ले)</t>
   </si>
   <si>
@@ -328,39 +328,39 @@
     <t>३००.००</t>
   </si>
   <si>
+    <t>कुरीलो</t>
+  </si>
+  <si>
     <t>३५०.००</t>
   </si>
   <si>
     <t>३३३.३३</t>
   </si>
   <si>
-    <t>कुरीलो</t>
-  </si>
-  <si>
     <t>न्यूरो</t>
   </si>
   <si>
+    <t>ब्रोकाउली</t>
+  </si>
+  <si>
     <t>१३२.५०</t>
   </si>
   <si>
-    <t>ब्रोकाउली</t>
-  </si>
-  <si>
     <t>चुकुन्दर</t>
   </si>
   <si>
     <t>रातो बन्दा</t>
   </si>
   <si>
+    <t>३७५.००</t>
+  </si>
+  <si>
     <t>जिरीको साग</t>
   </si>
   <si>
     <t>४००.००</t>
   </si>
   <si>
-    <t>३७५.००</t>
-  </si>
-  <si>
     <t>सेलरी</t>
   </si>
   <si>
@@ -373,16 +373,19 @@
     <t>२५५.००</t>
   </si>
   <si>
+    <t>८००.००</t>
+  </si>
+  <si>
+    <t>७००.००</t>
+  </si>
+  <si>
+    <t>७५०.००</t>
+  </si>
+  <si>
     <t>पार्सले</t>
   </si>
   <si>
-    <t>८००.००</t>
-  </si>
-  <si>
-    <t>७००.००</t>
-  </si>
-  <si>
-    <t>७५०.००</t>
+    <t>५५०.००</t>
   </si>
   <si>
     <t>पुदीना</t>
@@ -394,18 +397,15 @@
     <t>५००.००</t>
   </si>
   <si>
-    <t>५५०.००</t>
-  </si>
-  <si>
     <t>गान्टे मूला</t>
   </si>
   <si>
+    <t>इमली</t>
+  </si>
+  <si>
     <t>१५६.६७</t>
   </si>
   <si>
-    <t>इमली</t>
-  </si>
-  <si>
     <t>तामा</t>
   </si>
   <si>
@@ -415,33 +415,33 @@
     <t>तोफु</t>
   </si>
   <si>
+    <t>गुन्दुक</t>
+  </si>
+  <si>
     <t>२७५.००</t>
   </si>
   <si>
-    <t>गुन्दुक</t>
-  </si>
-  <si>
     <t>स्याउ(फूजी)</t>
   </si>
   <si>
     <t>३१०.००</t>
   </si>
   <si>
+    <t>केरा</t>
+  </si>
+  <si>
     <t>दर्जन</t>
   </si>
   <si>
     <t>१३६.६७</t>
   </si>
   <si>
-    <t>केरा</t>
+    <t>२२८.००</t>
   </si>
   <si>
     <t>कागती</t>
   </si>
   <si>
-    <t>२२८.००</t>
-  </si>
-  <si>
     <t>अनार</t>
   </si>
   <si>
@@ -478,43 +478,46 @@
     <t>जुनार</t>
   </si>
   <si>
+    <t>भुई कटहर</t>
+  </si>
+  <si>
     <t>प्रति गोटा</t>
   </si>
   <si>
-    <t>भुई कटहर</t>
+    <t>काक्रो(लोकल)</t>
   </si>
   <si>
     <t>८२.००</t>
   </si>
   <si>
-    <t>काक्रो(लोकल)</t>
-  </si>
-  <si>
     <t>काक्रो(हाइब्रीड)</t>
   </si>
   <si>
+    <t>रुख कटहर</t>
+  </si>
+  <si>
     <t>४८.३३</t>
   </si>
   <si>
-    <t>रुख कटहर</t>
-  </si>
-  <si>
     <t>नासपाती(लोकल)</t>
   </si>
   <si>
+    <t>२९०.००</t>
+  </si>
+  <si>
     <t>नासपाती(चाइनिज)</t>
   </si>
   <si>
-    <t>२९०.००</t>
-  </si>
-  <si>
     <t>मेवा(भारतीय)</t>
   </si>
   <si>
+    <t>५२५.००</t>
+  </si>
+  <si>
     <t>किवि</t>
   </si>
   <si>
-    <t>५२५.००</t>
+    <t>५७५.००</t>
   </si>
   <si>
     <t>आभोकाडो</t>
@@ -523,9 +526,6 @@
     <t>के.जी</t>
   </si>
   <si>
-    <t>५७५.००</t>
-  </si>
-  <si>
     <t>अदुवा</t>
   </si>
   <si>
@@ -544,18 +544,18 @@
     <t>खुर्सानी हरियो(बुलेट)</t>
   </si>
   <si>
+    <t>खुर्सानी हरियो(माछे)</t>
+  </si>
+  <si>
     <t>७६.६७</t>
   </si>
   <si>
-    <t>खुर्सानी हरियो(माछे)</t>
+    <t>खुर्सानी हरियो(अकबरे)</t>
   </si>
   <si>
     <t>३२५.००</t>
   </si>
   <si>
-    <t>खुर्सानी हरियो(अकबरे)</t>
-  </si>
-  <si>
     <t>भेडे खु्र्सानी</t>
   </si>
   <si>
@@ -577,15 +577,15 @@
     <t>लसुन सुकेको चाइनिज</t>
   </si>
   <si>
+    <t>२२०.००</t>
+  </si>
+  <si>
+    <t>२१०.००</t>
+  </si>
+  <si>
     <t>लसुन सुकेको नेपाली</t>
   </si>
   <si>
-    <t>२२०.००</t>
-  </si>
-  <si>
-    <t>२१०.००</t>
-  </si>
-  <si>
     <t>छ्यापी सुकेको</t>
   </si>
   <si>
@@ -595,25 +595,25 @@
     <t>छ्यापी हरियो</t>
   </si>
   <si>
+    <t>३४०.००</t>
+  </si>
+  <si>
     <t>३४५.००</t>
   </si>
   <si>
     <t>ताजा माछा(रहु)</t>
   </si>
   <si>
-    <t>३४०.००</t>
-  </si>
-  <si>
     <t>२४६.६७</t>
   </si>
   <si>
     <t>ताजा माछा(बचुवा)</t>
   </si>
   <si>
+    <t>२३०.००</t>
+  </si>
+  <si>
     <t>ताजा माछा(छडी)</t>
-  </si>
-  <si>
-    <t>२३०.००</t>
   </si>
   <si>
     <t>राजा च्याउ</t>
@@ -940,22 +940,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -983,19 +983,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -1003,19 +1003,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -1023,7 +1023,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1032,10 +1032,10 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -1043,19 +1043,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -1123,19 +1123,19 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>40</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11">
@@ -1143,7 +1143,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1152,10 +1152,10 @@
         <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -1183,19 +1183,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
         <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -1212,10 +1212,10 @@
         <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -1223,19 +1223,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
         <v>50</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="16">
@@ -1243,19 +1243,19 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
@@ -1275,7 +1275,7 @@
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -1283,7 +1283,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -1295,7 +1295,7 @@
         <v>32</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19">
@@ -1329,7 +1329,7 @@
         <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
         <v>45</v>
@@ -1412,7 +1412,7 @@
         <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
         <v>70</v>
@@ -1423,19 +1423,19 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" t="s">
         <v>71</v>
-      </c>
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="26">
@@ -1443,7 +1443,7 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
@@ -1452,10 +1452,10 @@
         <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
@@ -1469,10 +1469,10 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F27" t="s">
         <v>78</v>
@@ -1495,7 +1495,7 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
@@ -1515,7 +1515,7 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
@@ -1535,7 +1535,7 @@
         <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
@@ -1543,19 +1543,19 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
         <v>83</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="32">
@@ -1589,7 +1589,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E33" t="s">
         <v>55</v>
@@ -1615,7 +1615,7 @@
         <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
@@ -1623,19 +1623,19 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
         <v>88</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="36">
@@ -1649,13 +1649,13 @@
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s">
         <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37">
@@ -1715,7 +1715,7 @@
         <v>55</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40">
@@ -1723,19 +1723,19 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" t="s">
         <v>96</v>
       </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" t="s">
-        <v>95</v>
-      </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41">
@@ -1743,19 +1743,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
         <v>97</v>
       </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" t="s">
         <v>98</v>
-      </c>
-      <c r="E41" t="s">
-        <v>72</v>
-      </c>
-      <c r="F41" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="42">
@@ -1766,7 +1766,7 @@
         <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D42" t="s">
         <v>101</v>
@@ -1783,19 +1783,19 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C43" t="s">
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E43" t="s">
         <v>103</v>
       </c>
       <c r="F43" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44">
@@ -1823,7 +1823,7 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C45" t="s">
         <v>8</v>
@@ -1835,7 +1835,7 @@
         <v>69</v>
       </c>
       <c r="F45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46">
@@ -1883,19 +1883,19 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" t="s">
         <v>112</v>
-      </c>
-      <c r="C48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" t="s">
-        <v>113</v>
-      </c>
-      <c r="E48" t="s">
-        <v>104</v>
-      </c>
-      <c r="F48" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="49">
@@ -1923,19 +1923,19 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" t="s">
         <v>119</v>
       </c>
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>120</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>121</v>
-      </c>
-      <c r="F50" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="51">
@@ -1943,19 +1943,19 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" t="s">
+        <v>126</v>
+      </c>
+      <c r="F51" t="s">
         <v>123</v>
-      </c>
-      <c r="C51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" t="s">
-        <v>124</v>
-      </c>
-      <c r="E51" t="s">
-        <v>125</v>
-      </c>
-      <c r="F51" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="52">
@@ -1983,19 +1983,19 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" t="s">
         <v>129</v>
-      </c>
-      <c r="C53" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" t="s">
-        <v>73</v>
-      </c>
-      <c r="E53" t="s">
-        <v>95</v>
-      </c>
-      <c r="F53" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="54">
@@ -2009,13 +2009,13 @@
         <v>8</v>
       </c>
       <c r="D54" t="s">
+        <v>38</v>
+      </c>
+      <c r="E54" t="s">
         <v>39</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>40</v>
-      </c>
-      <c r="F54" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="55">
@@ -2029,10 +2029,10 @@
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E55" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F55" t="s">
         <v>131</v>
@@ -2043,7 +2043,7 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C56" t="s">
         <v>8</v>
@@ -2055,7 +2055,7 @@
         <v>117</v>
       </c>
       <c r="F56" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57">
@@ -2066,7 +2066,7 @@
         <v>135</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D57" t="s">
         <v>101</v>
@@ -2083,10 +2083,10 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C58" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D58" t="s">
         <v>65</v>
@@ -2095,7 +2095,7 @@
         <v>66</v>
       </c>
       <c r="F58" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59">
@@ -2103,7 +2103,7 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C59" t="s">
         <v>8</v>
@@ -2112,10 +2112,10 @@
         <v>117</v>
       </c>
       <c r="E59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60">
@@ -2155,7 +2155,7 @@
         <v>66</v>
       </c>
       <c r="F61" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62">
@@ -2175,7 +2175,7 @@
         <v>66</v>
       </c>
       <c r="F62" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="63">
@@ -2209,7 +2209,7 @@
         <v>29</v>
       </c>
       <c r="D64" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E64" t="s">
         <v>147</v>
@@ -2249,7 +2249,7 @@
         <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E66" t="s">
         <v>65</v>
@@ -2275,7 +2275,7 @@
         <v>117</v>
       </c>
       <c r="F67" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68">
@@ -2283,19 +2283,19 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
+        <v>154</v>
+      </c>
+      <c r="C68" t="s">
         <v>155</v>
       </c>
-      <c r="C68" t="s">
-        <v>154</v>
-      </c>
       <c r="D68" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E68" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F68" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69">
@@ -2303,7 +2303,7 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C69" t="s">
         <v>8</v>
@@ -2315,7 +2315,7 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70">
@@ -2326,16 +2326,16 @@
         <v>158</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
@@ -2343,7 +2343,7 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C71" t="s">
         <v>8</v>
@@ -2352,10 +2352,10 @@
         <v>32</v>
       </c>
       <c r="E71" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F71" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72">
@@ -2372,10 +2372,10 @@
         <v>69</v>
       </c>
       <c r="E72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73">
@@ -2383,7 +2383,7 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C73" t="s">
         <v>29</v>
@@ -2395,7 +2395,7 @@
         <v>102</v>
       </c>
       <c r="F73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74">
@@ -2409,13 +2409,13 @@
         <v>29</v>
       </c>
       <c r="D74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E74" t="s">
         <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75">
@@ -2423,19 +2423,19 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C75" t="s">
         <v>29</v>
       </c>
       <c r="D75" t="s">
+        <v>123</v>
+      </c>
+      <c r="E75" t="s">
         <v>126</v>
       </c>
-      <c r="E75" t="s">
-        <v>125</v>
-      </c>
       <c r="F75" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="76">
@@ -2443,19 +2443,19 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
+        <v>168</v>
+      </c>
+      <c r="C76" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" t="s">
+        <v>125</v>
+      </c>
+      <c r="E76" t="s">
+        <v>123</v>
+      </c>
+      <c r="F76" t="s">
         <v>167</v>
-      </c>
-      <c r="C76" t="s">
-        <v>168</v>
-      </c>
-      <c r="D76" t="s">
-        <v>124</v>
-      </c>
-      <c r="E76" t="s">
-        <v>126</v>
-      </c>
-      <c r="F76" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="77">
@@ -2469,13 +2469,13 @@
         <v>8</v>
       </c>
       <c r="D77" t="s">
+        <v>97</v>
+      </c>
+      <c r="E77" t="s">
+        <v>73</v>
+      </c>
+      <c r="F77" t="s">
         <v>98</v>
-      </c>
-      <c r="E77" t="s">
-        <v>72</v>
-      </c>
-      <c r="F77" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="78">
@@ -2492,7 +2492,7 @@
         <v>171</v>
       </c>
       <c r="E78" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F78" t="s">
         <v>172</v>
@@ -2526,7 +2526,7 @@
         <v>175</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D80" t="s">
         <v>9</v>
@@ -2543,10 +2543,10 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D81" t="s">
         <v>9</v>
@@ -2555,7 +2555,7 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82">
@@ -2563,19 +2563,19 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D82" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E82" t="s">
         <v>103</v>
       </c>
       <c r="F82" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="83">
@@ -2609,10 +2609,10 @@
         <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E84" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F84" t="s">
         <v>182</v>
@@ -2632,10 +2632,10 @@
         <v>117</v>
       </c>
       <c r="E85" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86">
@@ -2663,19 +2663,19 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
+        <v>189</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
         <v>187</v>
       </c>
-      <c r="C87" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
+        <v>97</v>
+      </c>
+      <c r="F87" t="s">
         <v>188</v>
-      </c>
-      <c r="E87" t="s">
-        <v>98</v>
-      </c>
-      <c r="F87" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="88">
@@ -2689,13 +2689,13 @@
         <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E88" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F88" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89">
@@ -2709,10 +2709,10 @@
         <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E89" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F89" t="s">
         <v>191</v>
@@ -2723,19 +2723,19 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
+        <v>195</v>
+      </c>
+      <c r="C90" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" t="s">
+        <v>105</v>
+      </c>
+      <c r="E90" t="s">
+        <v>193</v>
+      </c>
+      <c r="F90" t="s">
         <v>194</v>
-      </c>
-      <c r="C90" t="s">
-        <v>19</v>
-      </c>
-      <c r="D90" t="s">
-        <v>104</v>
-      </c>
-      <c r="E90" t="s">
-        <v>195</v>
-      </c>
-      <c r="F90" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="91">
@@ -2746,7 +2746,7 @@
         <v>197</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D91" t="s">
         <v>117</v>
@@ -2763,16 +2763,16 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D92" t="s">
         <v>117</v>
       </c>
       <c r="E92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F92" t="s">
         <v>184</v>
@@ -2795,7 +2795,7 @@
         <v>102</v>
       </c>
       <c r="F93" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94">
